--- a/data/regression_name_list1781.xlsx
+++ b/data/regression_name_list1781.xlsx
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3755,7 +3755,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4660,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -6912,7 +6912,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
